--- a/1. 뉴턴 2법칙/data/데이터_관성모멘트 포함.xlsx
+++ b/1. 뉴턴 2법칙/data/데이터_관성모멘트 포함.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gsahskr-my.sharepoint.com/personal/22027_gsa_hs_kr/Documents/GSA/4학기/일물실/physics-experiment/1. 뉴턴 2법칙/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gsahskr-my.sharepoint.com/personal/22027_gsa_hs_kr/Documents/GSA/4학기/일물실/physics-experiment/1. 뉴턴 2법칙/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{DEEA7CD7-9F98-445F-9CBD-3585936C35D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04A13690-DE3D-4285-9DC0-F4ECC936A43B}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{DEEA7CD7-9F98-445F-9CBD-3585936C35D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{560AB365-DC96-424D-9B56-CF0C2BCE1BB9}"/>
   <bookViews>
-    <workbookView xWindow="4212" yWindow="2820" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -229,10 +229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>끈 길이(kg)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>끈 길이(mm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,6 +270,10 @@
   </si>
   <si>
     <t>15,16,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끈 길이(m)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="N3" sqref="K3:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
         <v>44</v>
-      </c>
-      <c r="L1" t="s">
-        <v>45</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>32</v>
@@ -800,13 +800,13 @@
         <v>5.1700000000000001E-3</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
@@ -820,7 +820,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4">
         <f>$K$2/1000</f>
@@ -839,7 +839,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
@@ -850,7 +850,7 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
@@ -861,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
@@ -872,7 +872,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
@@ -886,7 +886,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
@@ -1075,7 +1075,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25">
         <f>AVERAGE(H22:H24)</f>
@@ -1090,15 +1090,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100CF8A46F2FBA51B49B57A1DF22A0E08CF" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="35983243bb9d7f8bc8d123dcbbda7e67">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="29a2ce2a-36ff-4a3c-b819-416cb2c6b601" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4023a38d8d0e0d8f28568dd93bf23c8b" ns3:_="">
     <xsd:import namespace="29a2ce2a-36ff-4a3c-b819-416cb2c6b601"/>
@@ -1280,15 +1271,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45DC8D23-E432-40D3-836C-E50966ABD94D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFAE736B-5412-408E-A370-DCCF34F3EB2D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1304,4 +1296,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45DC8D23-E432-40D3-836C-E50966ABD94D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>